--- a/biology/Zoologie/Cornufer_opisthodon/Cornufer_opisthodon.xlsx
+++ b/biology/Zoologie/Cornufer_opisthodon/Cornufer_opisthodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cornufer opisthodon est une espèce d'amphibiens de la famille des Ceratobatrachidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cornufer opisthodon est une espèce d'amphibiens de la famille des Ceratobatrachidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'archipel des Salomon. Elle se rencontre sur l'île Bougainville en Papouasie-Nouvelle-Guinée et aux Salomon sur les îles Fauro, Makira et Kolombangara[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'archipel des Salomon. Elle se rencontre sur l'île Bougainville en Papouasie-Nouvelle-Guinée et aux Salomon sur les îles Fauro, Makira et Kolombangara.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le statut de cette espèce a été relevée de sa synonymie avec Discodeles bufoniformis par Brown en 1952[2] où elle avait été placée par Barbour en 1921[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le statut de cette espèce a été relevée de sa synonymie avec Discodeles bufoniformis par Brown en 1952 où elle avait été placée par Barbour en 1921.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1884 : Diagnoses of new reptiles and batrachians from the Solomon Islands, collected and presented to the British Museum by H. B. Guppy, Esq., M.B., H.M.S. Lark. Proceedings of the Zoological Society of London, vol. 1884, p. 210-213 (texte intégral).</t>
         </is>
